--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0017-002 - Pengajuan family tree.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0017-002 - Pengajuan family tree.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72618C28-6F88-4841-B2D2-CB6B878292A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27E8E77-6555-4381-8931-0702B5B09C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0272" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0017" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -95,9 +95,6 @@
     <t>CUSTOMER FLAGGING FAMILY</t>
   </si>
   <si>
-    <t>DGS-287</t>
-  </si>
-  <si>
     <t>Pengajuan family tree</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   <si>
     <t xml:space="preserve"> -   Apabila Sales tersebut sebelumnya telah melakukan proses pengajuan Family Tree, maka Proses Send to Penyelia baru dapat dilakukan jika Proses Pengajuan Family Tree sebelumnya telah selesai dilakukan (telah melalui tahapan Approval 2 [BM]).
  -   Tombol proses send to penyelia disabled</t>
+  </si>
+  <si>
+    <t>SCD0017-002</t>
   </si>
 </sst>
 </file>
@@ -523,13 +523,13 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
@@ -602,16 +602,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="F2" s="13">
         <v>39237</v>
